--- a/datasets_excel/BFG_FY.xlsx
+++ b/datasets_excel/BFG_FY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\pcpics\deepaudit-main\deepaudit-main\datasets_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keert\deepaudit\deepaudit\datasets_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A575BAF-7E4D-4C6D-87CD-4BCEF6C1BD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E2F6F-43C0-45AD-BCCD-4C1643DDE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22670" yWindow="-40" windowWidth="22780" windowHeight="14660" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -8243,7 +8243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -21269,11 +21269,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="H1" activeCellId="2" sqref="D1:D1048576 F1:F1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
